--- a/metrics/qwen3-32B_prefill.xlsx
+++ b/metrics/qwen3-32B_prefill.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="性能分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Performance Analysis" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,8 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -72,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -94,6 +95,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -459,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,19 +491,19 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>性能分析报告: qwen3 (EXTEND)</t>
+          <t>Performance Analysis Report: qwen3 (EXTEND)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>算子名称</t>
+          <t>Operator Name</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>类型</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -531,52 +533,52 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>输入</t>
+          <t>Input</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>输出</t>
+          <t>Output</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>权重</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>计算(us)</t>
+          <t>Compute(us)</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>内存(us)</t>
+          <t>Memory(us)</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>传输(us)</t>
+          <t>Transfer(us)</t>
         </is>
       </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
-          <t>单层理论延时(us)</t>
+          <t>Single Layer Latency(us)</t>
         </is>
       </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
-          <t>总时间(ms)</t>
+          <t>Total Time(ms)</t>
         </is>
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>占比(%)</t>
+          <t>Percent(%)</t>
         </is>
       </c>
       <c r="Q3" s="2" t="inlineStr">
         <is>
-          <t>权重/单卡alllayers</t>
+          <t>Weight/Single GPU All Layers</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1089,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>计算时间 (ms)</t>
+          <t>Compute Time (ms)</t>
         </is>
       </c>
       <c r="B15" s="8" t="n">
@@ -1097,7 +1099,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>内存时间 (ms)</t>
+          <t>Memory Time (ms)</t>
         </is>
       </c>
       <c r="B16" s="8" t="n">
@@ -1107,7 +1109,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>传输时间 (ms)</t>
+          <t>Transfer Time (ms)</t>
         </is>
       </c>
       <c r="B17" s="8" t="n">
@@ -1117,7 +1119,7 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>总耗时 (ms)</t>
+          <t>Total Time (ms)</t>
         </is>
       </c>
       <c r="B18" s="8" t="n">
@@ -1127,12 +1129,12 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>性能瓶颈</t>
+          <t>Performance Bottleneck</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dense_gate_up_proj (总耗时: 68.719 ms)</t>
+          <t>dense_gate_up_proj (Total Time: 68.719 ms)</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1151,7 @@
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>吞吐量TPS</t>
+          <t>Throughput TPS</t>
         </is>
       </c>
       <c r="B24" s="8" t="n">
@@ -1159,11 +1161,21 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>权重显存/单卡(GB)</t>
+          <t>Weight Memory/Single GPU (GB)</t>
         </is>
       </c>
       <c r="B25" s="8" t="n">
         <v>7.266</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>KV Cache Memory/Single GPU (GB)</t>
+        </is>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>0.001221</v>
       </c>
     </row>
   </sheetData>
